--- a/biology/Médecine/Maïmouna_Bah_Sangaré/Maïmouna_Bah_Sangaré.xlsx
+++ b/biology/Médecine/Maïmouna_Bah_Sangaré/Maïmouna_Bah_Sangaré.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ma%C3%AFmouna_Bah_Sangar%C3%A9</t>
+          <t>Maïmouna_Bah_Sangaré</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Hadja Maïmouna Bah Sangaré  est une médecin et femme politique guinéenne.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ma%C3%AFmouna_Bah_Sangar%C3%A9</t>
+          <t>Maïmouna_Bah_Sangaré</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chef de service de médecine interne du CHU Ignace-Deen dans les années 1990[2], puis directrice générale de cet hôpital, elle est ensuite ministre de la Santé publique au sein du gouvernement Kouyaté du 28 mars 2007 au 20 mai 2008[3].
-Elle est membre du Lions Club International[4] et présidente de l'Association guinéenne d'éducation et d'aide aux personnes diabétiques[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chef de service de médecine interne du CHU Ignace-Deen dans les années 1990, puis directrice générale de cet hôpital, elle est ensuite ministre de la Santé publique au sein du gouvernement Kouyaté du 28 mars 2007 au 20 mai 2008.
+Elle est membre du Lions Club International et présidente de l'Association guinéenne d'éducation et d'aide aux personnes diabétiques.
 </t>
         </is>
       </c>
